--- a/BalanceSheet/CERN_bal.xlsx
+++ b/BalanceSheet/CERN_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-7246000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2697000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>5805000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-296000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-22000.0</v>
+        <v>23000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>23155000.0</v>
@@ -1678,19 +1678,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-1855000.0</v>
+        <v>236000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-29097000.0</v>
+        <v>256000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-40250000.0</v>
+        <v>262000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>8539000.0</v>
+        <v>296000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-5388000.0</v>
+        <v>273000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>275916000.0</v>
@@ -2762,19 +2762,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-20052000.0</v>
+        <v>376000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>8670000.0</v>
+        <v>392000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2435000.0</v>
+        <v>382000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>10449000.0</v>
+        <v>379000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>28332000.0</v>
+        <v>378000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>353711000.0</v>
